--- a/datascience.xlsx
+++ b/datascience.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Diagramm1" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Diagramm3" sheetId="5" r:id="rId2"/>
-    <sheet name="Leht1" sheetId="1" r:id="rId3"/>
+    <sheet name="Diagramm4" sheetId="7" r:id="rId3"/>
+    <sheet name="Leht1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="21">
   <si>
     <t>Man City</t>
   </si>
@@ -80,6 +81,15 @@
   </si>
   <si>
     <t>2019-2020</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>Games where team scored goals</t>
+  </si>
+  <si>
+    <t>Games where team did not score goals</t>
   </si>
 </sst>
 </file>
@@ -1254,9 +1264,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2018.-2019.</a:t>
+              <a:rPr lang="et-EE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Season 2018-2019</a:t>
             </a:r>
+            <a:endParaRPr lang="et-EE">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3214,6 +3229,558 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="et-EE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="et-EE"/>
+              <a:t>Season</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="et-EE" baseline="0"/>
+              <a:t> 2018-2019</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="et-EE" baseline="0"/>
+              <a:t>Total games count was 38</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="et-EE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Leht1!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Games where team scored goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="et-EE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Leht1!$C$52:$G$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Man City</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liverpool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chelsea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tottenham</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Man United</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Leht1!$C$53:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-893C-43DA-9C87-796C00FB9F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Leht1!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Games where team did not score goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="et-EE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Leht1!$C$52:$G$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Man City</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liverpool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chelsea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tottenham</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Man United</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Leht1!$C$54:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-893C-43DA-9C87-796C00FB9F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="454401688"/>
+        <c:axId val="454407592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454401688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454407592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454407592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454401688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="et-EE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="et-EE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -3291,6 +3858,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
@@ -4262,6 +4869,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4309,7 +5421,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4347,7 +5470,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9285725" cy="6064710"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -4633,23 +5783,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N63"/>
+  <dimension ref="B2:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:N9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -4681,7 +5831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -4719,7 +5869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -4757,7 +5907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4792,7 +5942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -4812,7 +5962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -4850,7 +6000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -4885,7 +6035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -4923,7 +6073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -4943,7 +6093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -4960,7 +6110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -4980,7 +6130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -5000,7 +6150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +6167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -5037,7 +6187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -5057,7 +6207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -5074,7 +6224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -5094,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -5114,12 +6264,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -5136,7 +6286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -5156,7 +6306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -5176,12 +6326,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E36" t="s">
-        <v>17</v>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -5198,12 +6400,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5212,38 +6414,90 @@
         <v>2</v>
       </c>
       <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="G38">
+      <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
+      <c r="E39">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>3</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E42" t="s">
-        <v>17</v>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -5260,230 +6514,185 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
         <v>2</v>
       </c>
-      <c r="F44">
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>36</v>
+      </c>
+      <c r="D53">
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>28</v>
+      </c>
+      <c r="F53">
+        <v>32</v>
+      </c>
+      <c r="G53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <f>C55-C53</f>
         <v>2</v>
       </c>
-      <c r="G44">
+      <c r="D54">
+        <f t="shared" ref="D54:G54" si="0">D55-D53</f>
         <v>3</v>
       </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>22</v>
-      </c>
-      <c r="D50">
-        <v>24</v>
-      </c>
-      <c r="E50">
-        <v>11</v>
-      </c>
-      <c r="F50">
-        <v>19</v>
-      </c>
-      <c r="G50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51">
-        <v>22</v>
-      </c>
-      <c r="D51">
-        <v>16</v>
-      </c>
-      <c r="E51">
-        <v>20</v>
-      </c>
-      <c r="F51">
-        <v>11</v>
-      </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56">
-        <v>17</v>
-      </c>
-      <c r="D56">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <v>13</v>
-      </c>
-      <c r="F56">
-        <v>14</v>
-      </c>
-      <c r="G56">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57">
-        <v>14</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>13</v>
-      </c>
-      <c r="F57">
-        <v>16</v>
-      </c>
-      <c r="G57">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>38</v>
+      </c>
+      <c r="D55">
+        <v>38</v>
+      </c>
+      <c r="E55">
+        <v>38</v>
+      </c>
+      <c r="F55">
+        <v>38</v>
+      </c>
+      <c r="G55">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
